--- a/public/services.xlsx
+++ b/public/services.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>artlib</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>monalisa</t>
+  </si>
+  <si>
+    <t>personnes</t>
   </si>
   <si>
     <t>dgdgfdg</t>
@@ -437,10 +440,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
